--- a/src/test/resources/testData/Country.xlsx
+++ b/src/test/resources/testData/Country.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATAN MUNNA\IdeaProjects\CucumberHybridFramework\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D9F6B4-82BE-45C7-9291-5ED5CB5E7F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A602EE-5190-4E8C-B2F2-12D5E892270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8960" yWindow="1750" windowWidth="10240" windowHeight="8240" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Country" sheetId="2" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>lastname</t>
   </si>
@@ -54,9 +48,6 @@
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">password confirm </t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
@@ -78,20 +69,68 @@
     <t>aaaaaaa</t>
   </si>
   <si>
-    <t>bbbbbbbb</t>
-  </si>
-  <si>
     <t>abc123@gmail.com</t>
   </si>
   <si>
     <t>Abcdef@1234</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>testcaseID</t>
+  </si>
+  <si>
+    <t>Abcdef@1235</t>
+  </si>
+  <si>
+    <t>Abcdef@1236</t>
+  </si>
+  <si>
+    <t>aaaaaab</t>
+  </si>
+  <si>
+    <t>aaaaaac</t>
+  </si>
+  <si>
+    <t>aaaaaad</t>
+  </si>
+  <si>
+    <t>aaaaaae</t>
+  </si>
+  <si>
+    <t>bbbbba</t>
+  </si>
+  <si>
+    <t>bbbbbbb</t>
+  </si>
+  <si>
+    <t>bbbbbc</t>
+  </si>
+  <si>
+    <t>bbbbbd</t>
+  </si>
+  <si>
+    <t>bbbbbbc</t>
+  </si>
+  <si>
+    <t>978752422a</t>
+  </si>
+  <si>
+    <t>pswdConfirm</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>Warning: E-Mail Address is already registered!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -183,13 +215,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377FDA0-EB0C-4E15-876C-6531C12DBB94}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,159 +552,196 @@
     <col min="5" max="5" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
-        <v>978752422</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
-        <v>978752422</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4">
-        <v>978752422</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4">
-        <v>978752422</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
-        <v>978752422</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{70040A57-7C59-48DA-825B-6921292C1D9F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/Country.xlsx
+++ b/src/test/resources/testData/Country.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PATAN MUNNA\IdeaProjects\CucumberHybridFramework\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A602EE-5190-4E8C-B2F2-12D5E892270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFA99C8-6578-4919-ADB7-212D9A783B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
+    <workbookView xWindow="1040" yWindow="2670" windowWidth="9980" windowHeight="7410" xr2:uid="{B8DE1AE7-181B-40F9-9E09-A4983B2523A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Country" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>lastname</t>
   </si>
@@ -66,9 +67,6 @@
     <t>TC006</t>
   </si>
   <si>
-    <t>aaaaaaa</t>
-  </si>
-  <si>
     <t>abc123@gmail.com</t>
   </si>
   <si>
@@ -84,9 +82,6 @@
     <t>Abcdef@1235</t>
   </si>
   <si>
-    <t>Abcdef@1236</t>
-  </si>
-  <si>
     <t>aaaaaab</t>
   </si>
   <si>
@@ -102,12 +97,6 @@
     <t>bbbbba</t>
   </si>
   <si>
-    <t>bbbbbbb</t>
-  </si>
-  <si>
-    <t>bbbbbc</t>
-  </si>
-  <si>
     <t>bbbbbd</t>
   </si>
   <si>
@@ -123,7 +112,19 @@
     <t>condition</t>
   </si>
   <si>
+    <t>acdf</t>
+  </si>
+  <si>
     <t>Warning: E-Mail Address is already registered!</t>
+  </si>
+  <si>
+    <t>Your Account Has Been Created!</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>abc1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -201,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,6 +223,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377FDA0-EB0C-4E15-876C-6531C12DBB94}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,15 +554,15 @@
     <col min="5" max="5" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.7265625" customWidth="1"/>
+    <col min="8" max="8" width="44.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -575,173 +577,216 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{70040A57-7C59-48DA-825B-6921292C1D9F}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{1EBE4F6F-B6E1-4075-9E30-C830D534AB11}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{EDE966C9-400D-445D-9F3D-3F02FE023FF3}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{B085CA40-8ECB-4CA0-8FC5-FFB020E28C35}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F393DC6A-77BB-49C1-87E2-445E7CC0C380}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>